--- a/Mechatronics/DeviceCommsMessaging.xlsx
+++ b/Mechatronics/DeviceCommsMessaging.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\learning\Mechatronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A0B64-3C58-488D-84F3-BBE58C434FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE10278-CBB1-4300-B04A-CEBEA7C26E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="42" windowWidth="12960" windowHeight="12360" activeTab="1" xr2:uid="{263EB8C5-626F-4CAB-9193-AD199E5A2ED7}"/>
+    <workbookView xWindow="1566" yWindow="204" windowWidth="12960" windowHeight="12360" xr2:uid="{263EB8C5-626F-4CAB-9193-AD199E5A2ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="HostDeviceCommsMessaging" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="LabsOverview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
   <si>
     <t>CMD char</t>
   </si>
@@ -434,14 +435,45 @@
   </si>
   <si>
     <t>Test system to determine accuracy and quality of control</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Overview:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lab 1 develops the low level communications functions then lab 2 uses those to read and send voltage information from sensors. Lab 3 uses the functions from lab 2 along with interupt timers to create functions for PWM control. Lab 4 will likely use all the previous functions to read, evaluate, and consolidate additional sensors like encoders and IR sensors. Then finally Lab 5 will combine all of the functions together to create closed loop control for the vehicle. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -586,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -608,15 +640,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -634,13 +657,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -959,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEB8546-54CC-4BA0-8348-D49EEEB8FB34}">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +1037,7 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1007,7 +1057,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="12"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="12"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1093,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="12"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1111,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="12"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1129,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="13"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1141,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1111,7 +1161,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1121,7 +1171,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="12"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="8"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1131,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1141,7 +1191,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="12"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1151,7 +1201,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1171,7 +1221,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="12"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
@@ -1189,7 +1239,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="12"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="12"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1275,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="12"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
@@ -1243,7 +1293,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="12"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1261,7 +1311,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="12"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
@@ -1279,7 +1329,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="13"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1297,7 +1347,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1317,7 +1367,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="12"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1383,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="12"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1399,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="12"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1415,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="12"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1381,7 +1431,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="13"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1447,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1417,7 +1467,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="12"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
@@ -1435,7 +1485,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="12"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4" t="s">
         <v>74</v>
       </c>
@@ -1453,7 +1503,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="13"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1484,10 +1534,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD6D632-9378-416D-BAD2-0A0794F06ECD}">
-  <dimension ref="A1:D47"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1495,401 +1548,326 @@
     <col min="1" max="1" width="3.15625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.7890625" customWidth="1"/>
+    <col min="4" max="4" width="9.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="20" customFormat="1" ht="60.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17"/>
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26"/>
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17"/>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="17"/>
-      <c r="B6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="17"/>
-      <c r="B7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26"/>
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="17"/>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="26"/>
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17"/>
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26"/>
+      <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="19" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B13" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="17"/>
-      <c r="B12" t="s">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26"/>
+      <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="17"/>
-      <c r="B13" t="s">
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26"/>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="17"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="17"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="17"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="17"/>
+      <c r="A17" s="14"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="17"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="20" t="s">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B18" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="14" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26"/>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26"/>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26"/>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="17"/>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="17"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="18"/>
+      <c r="A23" s="14"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="17"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="17"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="17"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="20" t="s">
+      <c r="A25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26"/>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="B27" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="17"/>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="17"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="17"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="17"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="17"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="17"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="17"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="17"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="17"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="17"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="17"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="17"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="17"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>